--- a/uipath/dailymovement/prestige_dailymovement/dailymovement.xlsx
+++ b/uipath/dailymovement/prestige_dailymovement/dailymovement.xlsx
@@ -379,7 +379,7 @@
   <x:sheetData>
     <x:row r="1" spans="1:1">
       <x:c r="A1" s="1">
-        <x:v>44056</x:v>
+        <x:v>44057</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -409,26 +409,26 @@
     </x:row>
     <x:row r="2" spans="1:3">
       <x:c r="A2" s="0" t="n">
-        <x:v>0.0081521739</x:v>
+        <x:v>0.0035714286</x:v>
       </x:c>
       <x:c r="B2" s="0" t="n">
-        <x:v>0.1</x:v>
+        <x:v>0.02</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:3">
       <x:c r="A3" s="0" t="n">
-        <x:v>0.0195145169</x:v>
+        <x:v>-0.0141843972</x:v>
       </x:c>
       <x:c r="B3" s="0" t="n">
-        <x:v>0.3</x:v>
+        <x:v>0.01</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:3">
       <x:c r="A4" s="0" t="n">
-        <x:v>0.0071942446</x:v>
+        <x:v>0.0215633423</x:v>
       </x:c>
       <x:c r="B4" s="0" t="n">
-        <x:v>0.02</x:v>
+        <x:v>0.1</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:3">
@@ -436,20 +436,20 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B5" s="0" t="n">
-        <x:v>0.01</x:v>
+        <x:v>0.1</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:3">
       <x:c r="A6" s="0" t="n">
-        <x:v>-0.0080645161</x:v>
+        <x:v>-0.0080037665</x:v>
       </x:c>
       <x:c r="B6" s="0" t="n">
-        <x:v>0.1</x:v>
+        <x:v>0.3</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:3">
       <x:c r="A7" s="0" t="n">
-        <x:v>0.0124153499</x:v>
+        <x:v>-0.0022296544</x:v>
       </x:c>
       <x:c r="B7" s="0" t="n">
         <x:v>0.1</x:v>
@@ -457,7 +457,7 @@
     </x:row>
     <x:row r="8" spans="1:3">
       <x:c r="A8" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>-0.0089285714</x:v>
       </x:c>
       <x:c r="B8" s="0" t="n">
         <x:v>0.05</x:v>
@@ -465,7 +465,7 @@
     </x:row>
     <x:row r="9" spans="1:3">
       <x:c r="A9" s="0" t="n">
-        <x:v>0.009552539</x:v>
+        <x:v>-0.000498008</x:v>
       </x:c>
       <x:c r="B9" s="0" t="n">
         <x:v>0.1</x:v>
@@ -473,7 +473,7 @@
     </x:row>
     <x:row r="10" spans="1:3">
       <x:c r="A10" s="0" t="n">
-        <x:v>0.0084367246</x:v>
+        <x:v>-0.0034448819</x:v>
       </x:c>
       <x:c r="B10" s="0" t="n">
         <x:v>0.02</x:v>
@@ -481,7 +481,7 @@
     </x:row>
     <x:row r="11" spans="1:3">
       <x:c r="A11" s="0" t="n">
-        <x:v>0.0168067227</x:v>
+        <x:v>0.0082644628</x:v>
       </x:c>
       <x:c r="B11" s="0" t="n">
         <x:v>0.2</x:v>

--- a/uipath/dailymovement/prestige_dailymovement/dailymovement.xlsx
+++ b/uipath/dailymovement/prestige_dailymovement/dailymovement.xlsx
@@ -379,7 +379,7 @@
   <x:sheetData>
     <x:row r="1" spans="1:1">
       <x:c r="A1" s="1">
-        <x:v>44057</x:v>
+        <x:v>44060</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -409,7 +409,7 @@
     </x:row>
     <x:row r="2" spans="1:3">
       <x:c r="A2" s="0" t="n">
-        <x:v>0.0035714286</x:v>
+        <x:v>-0.0035587189</x:v>
       </x:c>
       <x:c r="B2" s="0" t="n">
         <x:v>0.02</x:v>
@@ -417,7 +417,7 @@
     </x:row>
     <x:row r="3" spans="1:3">
       <x:c r="A3" s="0" t="n">
-        <x:v>-0.0141843972</x:v>
+        <x:v>0.0215827338</x:v>
       </x:c>
       <x:c r="B3" s="0" t="n">
         <x:v>0.01</x:v>
@@ -425,7 +425,7 @@
     </x:row>
     <x:row r="4" spans="1:3">
       <x:c r="A4" s="0" t="n">
-        <x:v>0.0215633423</x:v>
+        <x:v>-0.0158311346</x:v>
       </x:c>
       <x:c r="B4" s="0" t="n">
         <x:v>0.1</x:v>
@@ -441,7 +441,7 @@
     </x:row>
     <x:row r="6" spans="1:3">
       <x:c r="A6" s="0" t="n">
-        <x:v>-0.0080037665</x:v>
+        <x:v>-0.0033222591</x:v>
       </x:c>
       <x:c r="B6" s="0" t="n">
         <x:v>0.3</x:v>
@@ -449,7 +449,7 @@
     </x:row>
     <x:row r="7" spans="1:3">
       <x:c r="A7" s="0" t="n">
-        <x:v>-0.0022296544</x:v>
+        <x:v>-0.0044692737</x:v>
       </x:c>
       <x:c r="B7" s="0" t="n">
         <x:v>0.1</x:v>
@@ -457,7 +457,7 @@
     </x:row>
     <x:row r="8" spans="1:3">
       <x:c r="A8" s="0" t="n">
-        <x:v>-0.0089285714</x:v>
+        <x:v>0.009009009</x:v>
       </x:c>
       <x:c r="B8" s="0" t="n">
         <x:v>0.05</x:v>
@@ -465,7 +465,7 @@
     </x:row>
     <x:row r="9" spans="1:3">
       <x:c r="A9" s="0" t="n">
-        <x:v>-0.000498008</x:v>
+        <x:v>0.0004982561</x:v>
       </x:c>
       <x:c r="B9" s="0" t="n">
         <x:v>0.1</x:v>
@@ -473,7 +473,7 @@
     </x:row>
     <x:row r="10" spans="1:3">
       <x:c r="A10" s="0" t="n">
-        <x:v>-0.0034448819</x:v>
+        <x:v>-0.0049382716</x:v>
       </x:c>
       <x:c r="B10" s="0" t="n">
         <x:v>0.02</x:v>
@@ -481,7 +481,7 @@
     </x:row>
     <x:row r="11" spans="1:3">
       <x:c r="A11" s="0" t="n">
-        <x:v>0.0082644628</x:v>
+        <x:v>-0.0163934426</x:v>
       </x:c>
       <x:c r="B11" s="0" t="n">
         <x:v>0.2</x:v>

--- a/uipath/dailymovement/prestige_dailymovement/dailymovement.xlsx
+++ b/uipath/dailymovement/prestige_dailymovement/dailymovement.xlsx
@@ -379,7 +379,7 @@
   <x:sheetData>
     <x:row r="1" spans="1:1">
       <x:c r="A1" s="1">
-        <x:v>44060</x:v>
+        <x:v>44061</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -409,7 +409,7 @@
     </x:row>
     <x:row r="2" spans="1:3">
       <x:c r="A2" s="0" t="n">
-        <x:v>-0.0035587189</x:v>
+        <x:v>-0.0035714286</x:v>
       </x:c>
       <x:c r="B2" s="0" t="n">
         <x:v>0.02</x:v>
@@ -417,7 +417,7 @@
     </x:row>
     <x:row r="3" spans="1:3">
       <x:c r="A3" s="0" t="n">
-        <x:v>0.0215827338</x:v>
+        <x:v>-0.0070422535</x:v>
       </x:c>
       <x:c r="B3" s="0" t="n">
         <x:v>0.01</x:v>
@@ -425,7 +425,7 @@
     </x:row>
     <x:row r="4" spans="1:3">
       <x:c r="A4" s="0" t="n">
-        <x:v>-0.0158311346</x:v>
+        <x:v>-0.0026809651</x:v>
       </x:c>
       <x:c r="B4" s="0" t="n">
         <x:v>0.1</x:v>
@@ -441,7 +441,7 @@
     </x:row>
     <x:row r="6" spans="1:3">
       <x:c r="A6" s="0" t="n">
-        <x:v>-0.0033222591</x:v>
+        <x:v>-0.0123809524</x:v>
       </x:c>
       <x:c r="B6" s="0" t="n">
         <x:v>0.3</x:v>
@@ -449,7 +449,7 @@
     </x:row>
     <x:row r="7" spans="1:3">
       <x:c r="A7" s="0" t="n">
-        <x:v>-0.0044692737</x:v>
+        <x:v>-0.0067340067</x:v>
       </x:c>
       <x:c r="B7" s="0" t="n">
         <x:v>0.1</x:v>
@@ -457,7 +457,7 @@
     </x:row>
     <x:row r="8" spans="1:3">
       <x:c r="A8" s="0" t="n">
-        <x:v>0.009009009</x:v>
+        <x:v>-0.0089285714</x:v>
       </x:c>
       <x:c r="B8" s="0" t="n">
         <x:v>0.05</x:v>
@@ -465,7 +465,7 @@
     </x:row>
     <x:row r="9" spans="1:3">
       <x:c r="A9" s="0" t="n">
-        <x:v>0.0004982561</x:v>
+        <x:v>-0.0029880478</x:v>
       </x:c>
       <x:c r="B9" s="0" t="n">
         <x:v>0.1</x:v>
@@ -473,7 +473,7 @@
     </x:row>
     <x:row r="10" spans="1:3">
       <x:c r="A10" s="0" t="n">
-        <x:v>-0.0049382716</x:v>
+        <x:v>0.0064516129</x:v>
       </x:c>
       <x:c r="B10" s="0" t="n">
         <x:v>0.02</x:v>
@@ -481,7 +481,7 @@
     </x:row>
     <x:row r="11" spans="1:3">
       <x:c r="A11" s="0" t="n">
-        <x:v>-0.0163934426</x:v>
+        <x:v>-0.0208333333</x:v>
       </x:c>
       <x:c r="B11" s="0" t="n">
         <x:v>0.2</x:v>
